--- a/Product_List.xlsx
+++ b/Product_List.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jewel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gautam.vavadiya\D\Personal\Jewel\Data_Extraction\Jewel_Data_Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E635695-F92F-4EFC-A240-15230C142A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A06980-291E-4D51-B5AC-40E9CDA9A8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C97BB9E2-34E5-462A-8794-9FC33E972A9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C97BB9E2-34E5-462A-8794-9FC33E972A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Product List Client" sheetId="1" r:id="rId1"/>
-    <sheet name="Product Type" sheetId="2" r:id="rId2"/>
+    <sheet name="Ivan" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Product Type" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ivan!$A$1:$D$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product List Client'!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
@@ -173,13 +176,25 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Product_Id</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>StartWith</t>
+  </si>
+  <si>
+    <t>slug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +210,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,10 +227,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -217,9 +266,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -239,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F397A46-FF7F-42BD-AB16-01AE8D458F07}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,11 +1067,451 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A28DEE-2147-498F-999C-ED473066DA73}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>40003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>40004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>40005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>30004</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D25" xr:uid="{30A28DEE-2147-498F-999C-ED473066DA73}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
+      <sortCondition ref="A1:A25"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{795CA895-F419-4F7D-A9F8-75C941C456E4}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{DBEAA2EB-2182-466A-B8CE-5EC615900AC2}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{DDB8E2E0-D7EA-486E-9C17-09178B998821}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{583BE4ED-0FCC-42DC-A42D-A1C97FF5526C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A136BC-D191-4227-B709-F9D69FC09ED6}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>40001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0750DF44-08D9-4F74-9FEC-E24276446E68}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Product_List.xlsx
+++ b/Product_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gautam.vavadiya\D\Personal\Jewel\Data_Extraction\Jewel_Data_Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A06980-291E-4D51-B5AC-40E9CDA9A8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2FFB18-E7C9-421E-8A0F-8A5842A5DB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C97BB9E2-34E5-462A-8794-9FC33E972A9C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Product Type" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ivan!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ivan!$A$1:$F$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product List Client'!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -27,12 +27,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
@@ -188,6 +199,81 @@
   </si>
   <si>
     <t>slug</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>10 Cent Each Lab Grown Diamond Tennis Bracelet</t>
+  </si>
+  <si>
+    <t>22 Pointer Multishape Lab Grown Diamond Bracelet</t>
+  </si>
+  <si>
+    <t>Classic Lab Grown Diamond Chain Bracelet Online</t>
+  </si>
+  <si>
+    <t>Elegant Floral Lab Grown Diamond Bracelet</t>
+  </si>
+  <si>
+    <t>Modern Lab Grown Diamond Tennis Bracelet Online</t>
+  </si>
+  <si>
+    <t>Multi Cut Lab Grown Diamond Bracelet</t>
+  </si>
+  <si>
+    <t>2 Carat Lab Grown Diamond Cluster Cascade Earrings</t>
+  </si>
+  <si>
+    <t>Cushion Lab Grown Diamond Cluster Earrings</t>
+  </si>
+  <si>
+    <t>Double Row Diamond Hoop Earrings</t>
+  </si>
+  <si>
+    <t>Move Addiction Lab Grown Diamond Dangler Earrings</t>
+  </si>
+  <si>
+    <t>Sangria Lab Grown Diamond Studs</t>
+  </si>
+  <si>
+    <t>Circle Chain Lab Grown Diamond Necklace Online</t>
+  </si>
+  <si>
+    <t>Circlet Lab Grown Diamond Pendant Online</t>
+  </si>
+  <si>
+    <t>Lab Grown Diamond Cluster Necklace</t>
+  </si>
+  <si>
+    <t>Lab Grown Round Diamond Minimalist Necklace</t>
+  </si>
+  <si>
+    <t>Minimalist Lab Grown Diamond Pendant Necklace</t>
+  </si>
+  <si>
+    <t>Multi Shape Lab Grown Diamond Minimalist Necklace</t>
+  </si>
+  <si>
+    <t>Round Cut Lab Grown Diamond Necklace</t>
+  </si>
+  <si>
+    <t>Sparkling Lab Grown Diamond Tennis Necklace</t>
+  </si>
+  <si>
+    <t>1 Carat Lab Grown Marquise Diamond Ring Online</t>
+  </si>
+  <si>
+    <t>Baguette Diamond Cluster Ring</t>
+  </si>
+  <si>
+    <t>Radiant Solitaire Diamond Engagement Ring</t>
+  </si>
+  <si>
+    <t>Trillion Cut Diamond Engagement Ring</t>
+  </si>
+  <si>
+    <t>0.75 Carat Lab Grown Diamond Studs</t>
   </si>
 </sst>
 </file>
@@ -227,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,17 +336,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -269,10 +344,10 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1068,379 +1143,548 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A28DEE-2147-498F-999C-ED473066DA73}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
         <v>40001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="4" t="str">
+        <f>RIGHT($B2, LEN($B2) - FIND("@", SUBSTITUTE($B2, "/", "@", LEN($B2)-LEN(SUBSTITUTE($B2,"/","")))))</f>
+        <v>10-cent-each-lab-grown-diamond-tennis-bracelet</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
         <v>40002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E25" si="0">RIGHT($B3, LEN($B3) - FIND("@", SUBSTITUTE($B3, "/", "@", LEN($B3)-LEN(SUBSTITUTE($B3,"/","")))))</f>
+        <v>22-pointer-multishape-lab-grown-diamond-bracelet</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
         <v>40003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>classic-lab-grown-diamond-chain-bracelet-online</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
         <v>40004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>elegant-floral-lab-grown-diamond-bracelet</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
         <v>40005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>modern-lab-grown-diamond-tennis-bracelet-online</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
         <v>40006</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>multi-cut-lab-grown-diamond-bracelet</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
         <v>20001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0-75-carat-lab-grown-diamond-studs</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
         <v>20002</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2-carat-lab-grown-diamond-cluster-cascade-earrings</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
         <v>20003</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>cushion-lab-grown-diamond-cluster-earrings</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
         <v>20004</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>double-row-diamond-hoop-earrings</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
         <v>20005</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>move-addiction-lab-grown-diamond-dangler-earrings</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
         <v>20006</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>sangria-lab-grown-diamond-studs</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
         <v>10001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>circle-chain-lab-grown-diamond-necklace-online</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
         <v>10002</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>circlet-lab-grown-diamond-pendant-online</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
         <v>10003</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>lab-grown-diamond-cluster-necklace</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
         <v>10004</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>lab-grown-round-diamond-minimalist-necklace</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
         <v>10005</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>minimalist-lab-grown-diamond-pendant-necklace</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
         <v>10006</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>multi-shape-lab-grown-diamond-minimalist-necklace</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
         <v>10007</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>round-cut-lab-grown-diamond-necklace</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
         <v>10008</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>sparkling-lab-grown-diamond-tennis-necklace</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
         <v>30001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1-carat-lab-grown-marquise-diamond-ring-online</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
         <v>30002</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="E23" s="4" t="str">
+        <f>RIGHT($B23, LEN($B23) - FIND("@", SUBSTITUTE($B23, "/", "@", LEN($B23)-LEN(SUBSTITUTE($B23,"/","")))))</f>
+        <v>baguette-diamond-cluster-ring</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
         <v>30003</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>radiant-solitaire-diamond-engagement-ring</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
         <v>30004</v>
       </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>trillion-cut-diamond-engagement-ring</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D25" xr:uid="{30A28DEE-2147-498F-999C-ED473066DA73}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
-      <sortCondition ref="A1:A25"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F25" xr:uid="{30A28DEE-2147-498F-999C-ED473066DA73}"/>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{795CA895-F419-4F7D-A9F8-75C941C456E4}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{DBEAA2EB-2182-466A-B8CE-5EC615900AC2}"/>
@@ -1448,6 +1692,7 @@
     <hyperlink ref="B9" r:id="rId4" xr:uid="{583BE4ED-0FCC-42DC-A42D-A1C97FF5526C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Product_List.xlsx
+++ b/Product_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gautam.vavadiya\D\Personal\Jewel\Data_Extraction\Jewel_Data_Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2FFB18-E7C9-421E-8A0F-8A5842A5DB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6ABFC6-34CE-40A6-B08D-01DB7F920267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C97BB9E2-34E5-462A-8794-9FC33E972A9C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Product Type" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ivan!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ivan!$A$1:$G$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product List Client'!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="78">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>0.75 Carat Lab Grown Diamond Studs</t>
+  </si>
+  <si>
+    <t>Total Image Count</t>
   </si>
 </sst>
 </file>
@@ -344,11 +347,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1143,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A28DEE-2147-498F-999C-ED473066DA73}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,540 +1162,617 @@
     <col min="6" max="6" width="46.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
         <v>40001</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="3" t="str">
         <f>RIGHT($B2, LEN($B2) - FIND("@", SUBSTITUTE($B2, "/", "@", LEN($B2)-LEN(SUBSTITUTE($B2,"/","")))))</f>
         <v>10-cent-each-lab-grown-diamond-tennis-bracelet</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
         <v>40002</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E25" si="0">RIGHT($B3, LEN($B3) - FIND("@", SUBSTITUTE($B3, "/", "@", LEN($B3)-LEN(SUBSTITUTE($B3,"/","")))))</f>
         <v>22-pointer-multishape-lab-grown-diamond-bracelet</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
         <v>40003</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>classic-lab-grown-diamond-chain-bracelet-online</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
         <v>40004</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>elegant-floral-lab-grown-diamond-bracelet</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="3">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <v>40005</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>modern-lab-grown-diamond-tennis-bracelet-online</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
         <v>40006</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>multi-cut-lab-grown-diamond-bracelet</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="G7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
         <v>20001</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0-75-carat-lab-grown-diamond-studs</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
         <v>20002</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-carat-lab-grown-diamond-cluster-cascade-earrings</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <v>20003</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cushion-lab-grown-diamond-cluster-earrings</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
         <v>20004</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>double-row-diamond-hoop-earrings</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
         <v>20005</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>move-addiction-lab-grown-diamond-dangler-earrings</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
         <v>20006</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>sangria-lab-grown-diamond-studs</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
         <v>10001</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>circle-chain-lab-grown-diamond-necklace-online</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="G14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
         <v>10002</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>circlet-lab-grown-diamond-pendant-online</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="G15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
         <v>10003</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>lab-grown-diamond-cluster-necklace</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="G16" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
         <v>10004</v>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>lab-grown-round-diamond-minimalist-necklace</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="G17" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
         <v>10005</v>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="E18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>minimalist-lab-grown-diamond-pendant-necklace</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="G18" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="4">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
         <v>10006</v>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>multi-shape-lab-grown-diamond-minimalist-necklace</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="G19" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
         <v>10007</v>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>round-cut-lab-grown-diamond-necklace</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="G20" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
         <v>10008</v>
       </c>
-      <c r="E21" s="4" t="str">
+      <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>sparkling-lab-grown-diamond-tennis-necklace</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="G21" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
         <v>30001</v>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="E22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-carat-lab-grown-marquise-diamond-ring-online</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="G22" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
         <v>30002</v>
       </c>
-      <c r="E23" s="4" t="str">
+      <c r="E23" s="3" t="str">
         <f>RIGHT($B23, LEN($B23) - FIND("@", SUBSTITUTE($B23, "/", "@", LEN($B23)-LEN(SUBSTITUTE($B23,"/","")))))</f>
         <v>baguette-diamond-cluster-ring</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="G23" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
         <v>30003</v>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="E24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>radiant-solitaire-diamond-engagement-ring</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="G24" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
         <v>30004</v>
       </c>
-      <c r="E25" s="4" t="str">
+      <c r="E25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>trillion-cut-diamond-engagement-ring</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="G25" s="3">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F25" xr:uid="{30A28DEE-2147-498F-999C-ED473066DA73}"/>
+  <autoFilter ref="A1:G25" xr:uid="{30A28DEE-2147-498F-999C-ED473066DA73}"/>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{795CA895-F419-4F7D-A9F8-75C941C456E4}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{DBEAA2EB-2182-466A-B8CE-5EC615900AC2}"/>
     <hyperlink ref="B22" r:id="rId3" xr:uid="{DDB8E2E0-D7EA-486E-9C17-09178B998821}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{583BE4ED-0FCC-42DC-A42D-A1C97FF5526C}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{E2C83D65-647D-4537-AEDF-5DC8975C0047}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
